--- a/medicine/Mort/Thanatos,_l'ultime_passage/Thanatos,_l'ultime_passage.xlsx
+++ b/medicine/Mort/Thanatos,_l'ultime_passage/Thanatos,_l'ultime_passage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thanatos,_l%27ultime_passage</t>
+          <t>Thanatos,_l'ultime_passage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thanatos, l'ultime passage est un documentaire français, qui traite du sujet des expériences de mort imminente (EMI)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thanatos, l'ultime passage est un documentaire français, qui traite du sujet des expériences de mort imminente (EMI),.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thanatos,_l%27ultime_passage</t>
+          <t>Thanatos,_l'ultime_passage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous la forme d'une enquête, le film part à la rencontre de scientifiques et de personnes ayant vécu des EMI, et aborde les changements de vie qui peuvent s'ensuivre[3].
-Ce film, le troisième du réalisateur, représente la première enquête cinématographique sur les EMI[4], et se déroule sur une durée de deux ans[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous la forme d'une enquête, le film part à la rencontre de scientifiques et de personnes ayant vécu des EMI, et aborde les changements de vie qui peuvent s'ensuivre.
+Ce film, le troisième du réalisateur, représente la première enquête cinématographique sur les EMI, et se déroule sur une durée de deux ans.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thanatos,_l%27ultime_passage</t>
+          <t>Thanatos,_l'ultime_passage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Date de sortie : 30 octobre 2019
 Durée : 104 minutes</t>
